--- a/data/pca/factorExposure/factorExposure_2011-10-26.xlsx
+++ b/data/pca/factorExposure/factorExposure_2011-10-26.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="111">
   <si>
     <t>factor1</t>
   </si>
@@ -23,6 +23,21 @@
   </si>
   <si>
     <t>factor3</t>
+  </si>
+  <si>
+    <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
+  </si>
+  <si>
+    <t>factor7</t>
+  </si>
+  <si>
+    <t>factor8</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -689,13 +704,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D104"/>
+  <dimension ref="A1:I104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:9">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -705,24 +720,54 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="B2">
-        <v>0.01256029401967982</v>
+        <v>-0.01430180238970668</v>
       </c>
       <c r="C2">
-        <v>-0.02657300674263616</v>
+        <v>0.009032012219656296</v>
       </c>
       <c r="D2">
-        <v>0.01502929660651048</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>-0.02448209128326335</v>
+      </c>
+      <c r="E2">
+        <v>0.01107551877647892</v>
+      </c>
+      <c r="F2">
+        <v>-0.03689959680793539</v>
+      </c>
+      <c r="G2">
+        <v>-0.02245355941751724</v>
+      </c>
+      <c r="H2">
+        <v>0.01228144874839063</v>
+      </c>
+      <c r="I2">
+        <v>-0.002953499160997746</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -733,24 +778,54 @@
       <c r="D3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="B4">
-        <v>0.07532652405731112</v>
+        <v>-0.08941596891995456</v>
       </c>
       <c r="C4">
-        <v>-0.05576943353910052</v>
+        <v>-0.02211343457375027</v>
       </c>
       <c r="D4">
-        <v>0.08121661828791146</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>-0.08193882405655915</v>
+      </c>
+      <c r="E4">
+        <v>0.006532477196658553</v>
+      </c>
+      <c r="F4">
+        <v>-0.04273082365762611</v>
+      </c>
+      <c r="G4">
+        <v>0.02309037331187938</v>
+      </c>
+      <c r="H4">
+        <v>-0.04028618251822214</v>
+      </c>
+      <c r="I4">
+        <v>0.06692556955214332</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -761,164 +836,344 @@
       <c r="D5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="B6">
-        <v>0.1129315028007178</v>
+        <v>-0.1253076354335617</v>
       </c>
       <c r="C6">
-        <v>-0.05225176020505847</v>
+        <v>0.01972654300442777</v>
       </c>
       <c r="D6">
-        <v>0.005650559579045757</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>-0.03133553882294021</v>
+      </c>
+      <c r="E6">
+        <v>-0.02513150406743441</v>
+      </c>
+      <c r="F6">
+        <v>-0.04795507698877813</v>
+      </c>
+      <c r="G6">
+        <v>0.04203758803670495</v>
+      </c>
+      <c r="H6">
+        <v>0.1764975280659338</v>
+      </c>
+      <c r="I6">
+        <v>0.03085311619921005</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="B7">
-        <v>0.05860784435922651</v>
+        <v>-0.06531273653320015</v>
       </c>
       <c r="C7">
-        <v>-0.04555078093434863</v>
+        <v>-0.01913074314053324</v>
       </c>
       <c r="D7">
-        <v>0.03430371104453434</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>-0.06100630677932103</v>
+      </c>
+      <c r="E7">
+        <v>0.01735502944704884</v>
+      </c>
+      <c r="F7">
+        <v>-0.04882124190471072</v>
+      </c>
+      <c r="G7">
+        <v>-0.01695299196967109</v>
+      </c>
+      <c r="H7">
+        <v>-0.01526732655799001</v>
+      </c>
+      <c r="I7">
+        <v>0.04070128234113816</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8" s="1" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="B8">
-        <v>0.03550606450318242</v>
+        <v>-0.0420689571306535</v>
       </c>
       <c r="C8">
-        <v>-0.0131474830841875</v>
+        <v>-0.01188344630659688</v>
       </c>
       <c r="D8">
-        <v>0.06404912281297563</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>-0.02957014429884436</v>
+      </c>
+      <c r="E8">
+        <v>0.006928248638616563</v>
+      </c>
+      <c r="F8">
+        <v>-0.07594892383452563</v>
+      </c>
+      <c r="G8">
+        <v>0.08689194228120418</v>
+      </c>
+      <c r="H8">
+        <v>0.01305393665887739</v>
+      </c>
+      <c r="I8">
+        <v>0.1373867236964353</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="B9">
-        <v>0.07153636273264972</v>
+        <v>-0.08149859331576957</v>
       </c>
       <c r="C9">
-        <v>-0.04397133454618923</v>
+        <v>-0.0238383476524392</v>
       </c>
       <c r="D9">
-        <v>0.07436841842473302</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>-0.06799586295253124</v>
+      </c>
+      <c r="E9">
+        <v>0.01759228662968043</v>
+      </c>
+      <c r="F9">
+        <v>-0.03877255207009333</v>
+      </c>
+      <c r="G9">
+        <v>0.03657166208062806</v>
+      </c>
+      <c r="H9">
+        <v>-0.03814971195283026</v>
+      </c>
+      <c r="I9">
+        <v>0.07188610640914447</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
       <c r="A10" s="1" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="B10">
-        <v>0.02389768366191434</v>
+        <v>-0.05367343336188427</v>
       </c>
       <c r="C10">
-        <v>-0.01734218293586104</v>
+        <v>0.1692054544228711</v>
       </c>
       <c r="D10">
-        <v>-0.1683764552505147</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>0.09641783699995798</v>
+      </c>
+      <c r="E10">
+        <v>0.02475130902425809</v>
+      </c>
+      <c r="F10">
+        <v>-0.05760408858792507</v>
+      </c>
+      <c r="G10">
+        <v>-0.03787292417220843</v>
+      </c>
+      <c r="H10">
+        <v>0.04043591456252591</v>
+      </c>
+      <c r="I10">
+        <v>-0.0344611294375107</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
       <c r="A11" s="1" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="B11">
-        <v>0.06652113036818984</v>
+        <v>-0.07174412839657056</v>
       </c>
       <c r="C11">
-        <v>-0.04197572544135197</v>
+        <v>-0.02473493242069057</v>
       </c>
       <c r="D11">
-        <v>0.05569196989118284</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>-0.05919210886133965</v>
+      </c>
+      <c r="E11">
+        <v>0.001816171859570136</v>
+      </c>
+      <c r="F11">
+        <v>-0.03964037162174115</v>
+      </c>
+      <c r="G11">
+        <v>0.04498715939498842</v>
+      </c>
+      <c r="H11">
+        <v>-0.05974919705627917</v>
+      </c>
+      <c r="I11">
+        <v>0.06802422440196956</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
       <c r="A12" s="1" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="B12">
-        <v>0.06020591555762051</v>
+        <v>-0.06794581188479461</v>
       </c>
       <c r="C12">
-        <v>-0.05447906974424478</v>
+        <v>-0.01007015994491594</v>
       </c>
       <c r="D12">
-        <v>0.04683965726193581</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>-0.06045345925308298</v>
+      </c>
+      <c r="E12">
+        <v>0.008234568194841571</v>
+      </c>
+      <c r="F12">
+        <v>-0.02905781638513978</v>
+      </c>
+      <c r="G12">
+        <v>0.02412033085386693</v>
+      </c>
+      <c r="H12">
+        <v>-0.02737945945708258</v>
+      </c>
+      <c r="I12">
+        <v>0.09427291224159236</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
       <c r="A13" s="1" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="B13">
-        <v>0.06610174862779193</v>
+        <v>-0.0680718086661582</v>
       </c>
       <c r="C13">
-        <v>-0.04930180480753444</v>
+        <v>-0.005812629297663139</v>
       </c>
       <c r="D13">
-        <v>0.05126310570112762</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+        <v>-0.05242350980668009</v>
+      </c>
+      <c r="E13">
+        <v>0.007989070152004661</v>
+      </c>
+      <c r="F13">
+        <v>-0.02110498409126586</v>
+      </c>
+      <c r="G13">
+        <v>0.02970020787620929</v>
+      </c>
+      <c r="H13">
+        <v>-0.05097889752700369</v>
+      </c>
+      <c r="I13">
+        <v>0.1080188357775399</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
       <c r="A14" s="1" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="B14">
-        <v>0.02854687759718532</v>
+        <v>-0.03999659604146619</v>
       </c>
       <c r="C14">
-        <v>-0.0297928689931147</v>
+        <v>0.0108517172177821</v>
       </c>
       <c r="D14">
-        <v>0.001454001094044634</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <v>-0.03150083408027092</v>
+      </c>
+      <c r="E14">
+        <v>0.01980553694175492</v>
+      </c>
+      <c r="F14">
+        <v>-0.01958958751217361</v>
+      </c>
+      <c r="G14">
+        <v>0.01755820030199994</v>
+      </c>
+      <c r="H14">
+        <v>-0.06988901147665191</v>
+      </c>
+      <c r="I14">
+        <v>0.04735960582891049</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
       <c r="A15" s="1" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="B15">
-        <v>0.04365059016559198</v>
+        <v>-0.04132464753682113</v>
       </c>
       <c r="C15">
-        <v>-0.01457378866976075</v>
+        <v>-0.007162369657650832</v>
       </c>
       <c r="D15">
-        <v>0.02842844941123005</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
+        <v>-0.01445180160666912</v>
+      </c>
+      <c r="E15">
+        <v>0.0298018720694389</v>
+      </c>
+      <c r="F15">
+        <v>-0.0005006022668039192</v>
+      </c>
+      <c r="G15">
+        <v>0.03265709722985909</v>
+      </c>
+      <c r="H15">
+        <v>-0.02276624027086024</v>
+      </c>
+      <c r="I15">
+        <v>0.02823856246949735</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
       <c r="A16" s="1" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="B16">
-        <v>0.05631645969449635</v>
+        <v>-0.06912021540517113</v>
       </c>
       <c r="C16">
-        <v>-0.04282576276141428</v>
+        <v>-0.02154643148246696</v>
       </c>
       <c r="D16">
-        <v>0.05555016118201072</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>-0.06566989715124537</v>
+      </c>
+      <c r="E16">
+        <v>0.003512740331216188</v>
+      </c>
+      <c r="F16">
+        <v>-0.03314980158445746</v>
+      </c>
+      <c r="G16">
+        <v>0.02297108821698963</v>
+      </c>
+      <c r="H16">
+        <v>-0.04124773294995694</v>
+      </c>
+      <c r="I16">
+        <v>0.0641110621086959</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
       <c r="A17" s="1" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -929,10 +1184,25 @@
       <c r="D17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:4">
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
       <c r="A18" s="1" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -943,10 +1213,25 @@
       <c r="D18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:4">
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
       <c r="A19" s="1" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -957,108 +1242,228 @@
       <c r="D19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:4">
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
       <c r="A20" s="1" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="B20">
-        <v>0.06209699450365699</v>
+        <v>-0.06321435925887582</v>
       </c>
       <c r="C20">
-        <v>-0.02509900774918695</v>
+        <v>-0.02256707704945232</v>
       </c>
       <c r="D20">
-        <v>0.05266479511387868</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+        <v>-0.03682371183382305</v>
+      </c>
+      <c r="E20">
+        <v>0.0004231549032203937</v>
+      </c>
+      <c r="F20">
+        <v>-0.02710209105555193</v>
+      </c>
+      <c r="G20">
+        <v>0.01971737605396612</v>
+      </c>
+      <c r="H20">
+        <v>-0.04844828402613306</v>
+      </c>
+      <c r="I20">
+        <v>0.08322351539792311</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
       <c r="A21" s="1" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="B21">
-        <v>0.03072708345498884</v>
+        <v>-0.0265363322947298</v>
       </c>
       <c r="C21">
-        <v>-0.01339861094857172</v>
+        <v>-0.01261133044948119</v>
       </c>
       <c r="D21">
-        <v>0.01213940668257612</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+        <v>-0.01740078013281383</v>
+      </c>
+      <c r="E21">
+        <v>0.0329477842651831</v>
+      </c>
+      <c r="F21">
+        <v>0.01017762918412995</v>
+      </c>
+      <c r="G21">
+        <v>0.01263879701995662</v>
+      </c>
+      <c r="H21">
+        <v>0.04862734533024049</v>
+      </c>
+      <c r="I21">
+        <v>0.02322759778415584</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
       <c r="A22" s="1" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="B22">
-        <v>0.08054515676044223</v>
+        <v>-0.07646009550013574</v>
       </c>
       <c r="C22">
-        <v>-0.079816979594134</v>
+        <v>-0.02579683169954488</v>
       </c>
       <c r="D22">
-        <v>0.1365376193018344</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+        <v>-0.106295236113074</v>
+      </c>
+      <c r="E22">
+        <v>0.6077707276801111</v>
+      </c>
+      <c r="F22">
+        <v>0.001776776684955833</v>
+      </c>
+      <c r="G22">
+        <v>-0.1952016558304773</v>
+      </c>
+      <c r="H22">
+        <v>0.1370208025205717</v>
+      </c>
+      <c r="I22">
+        <v>-0.179776271895717</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
       <c r="A23" s="1" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="B23">
-        <v>0.08116206525865859</v>
+        <v>-0.07719926789066019</v>
       </c>
       <c r="C23">
-        <v>-0.08080265215986002</v>
+        <v>-0.02557084832835042</v>
       </c>
       <c r="D23">
-        <v>0.1365835644376011</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
+        <v>-0.1075266976932697</v>
+      </c>
+      <c r="E23">
+        <v>0.61039537480034</v>
+      </c>
+      <c r="F23">
+        <v>1.087379914263504e-05</v>
+      </c>
+      <c r="G23">
+        <v>-0.1890259487986471</v>
+      </c>
+      <c r="H23">
+        <v>0.136629877311966</v>
+      </c>
+      <c r="I23">
+        <v>-0.1809808588730903</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
       <c r="A24" s="1" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="B24">
-        <v>0.07296533232274731</v>
+        <v>-0.07869136686907774</v>
       </c>
       <c r="C24">
-        <v>-0.05178529808141751</v>
+        <v>-0.01920626271113351</v>
       </c>
       <c r="D24">
-        <v>0.0603671165817883</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
+        <v>-0.06540345774580104</v>
+      </c>
+      <c r="E24">
+        <v>0.0106157800362746</v>
+      </c>
+      <c r="F24">
+        <v>-0.04178239113220511</v>
+      </c>
+      <c r="G24">
+        <v>0.03968033396783003</v>
+      </c>
+      <c r="H24">
+        <v>-0.02942472324836013</v>
+      </c>
+      <c r="I24">
+        <v>0.07237216218252956</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
       <c r="A25" s="1" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="B25">
-        <v>0.07007937072405586</v>
+        <v>-0.07664523504970221</v>
       </c>
       <c r="C25">
-        <v>-0.05759794879485491</v>
+        <v>-0.008714970099971044</v>
       </c>
       <c r="D25">
-        <v>0.05792107332715822</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+        <v>-0.06462832399588844</v>
+      </c>
+      <c r="E25">
+        <v>0.01639185913908613</v>
+      </c>
+      <c r="F25">
+        <v>-0.03677846789981697</v>
+      </c>
+      <c r="G25">
+        <v>0.04768295634831037</v>
+      </c>
+      <c r="H25">
+        <v>-0.03719185423445119</v>
+      </c>
+      <c r="I25">
+        <v>0.08386176455558615</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
       <c r="A26" s="1" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="B26">
-        <v>0.04478346347072867</v>
+        <v>-0.04648558084383462</v>
       </c>
       <c r="C26">
-        <v>-0.01529650651351689</v>
+        <v>-0.009231279631857945</v>
       </c>
       <c r="D26">
-        <v>0.01574881836100944</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
+        <v>-0.018077744747925</v>
+      </c>
+      <c r="E26">
+        <v>0.04211692833491127</v>
+      </c>
+      <c r="F26">
+        <v>-0.02677686323720064</v>
+      </c>
+      <c r="G26">
+        <v>0.02737647751680429</v>
+      </c>
+      <c r="H26">
+        <v>-0.03663569843357066</v>
+      </c>
+      <c r="I26">
+        <v>0.005318718592308467</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
       <c r="A27" s="1" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1069,136 +1474,286 @@
       <c r="D27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <v>0</v>
+      </c>
+      <c r="I27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
       <c r="A28" s="1" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="B28">
-        <v>0.04786760459347456</v>
+        <v>-0.07671293917584059</v>
       </c>
       <c r="C28">
-        <v>-0.07245119873911049</v>
+        <v>0.2825982762868745</v>
       </c>
       <c r="D28">
-        <v>-0.304490360002743</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
+        <v>0.1407910238609334</v>
+      </c>
+      <c r="E28">
+        <v>0.02685448383528772</v>
+      </c>
+      <c r="F28">
+        <v>-0.05414424759942309</v>
+      </c>
+      <c r="G28">
+        <v>0.03050609208213321</v>
+      </c>
+      <c r="H28">
+        <v>0.07527045365951994</v>
+      </c>
+      <c r="I28">
+        <v>-0.01162698706695599</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
       <c r="A29" s="1" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="B29">
-        <v>0.04538930285868868</v>
+        <v>-0.05107469541598307</v>
       </c>
       <c r="C29">
-        <v>-0.04365512437956667</v>
+        <v>0.01393582659460662</v>
       </c>
       <c r="D29">
-        <v>0.004059860501084121</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
+        <v>-0.03596394438848016</v>
+      </c>
+      <c r="E29">
+        <v>0.04451096517882497</v>
+      </c>
+      <c r="F29">
+        <v>-0.02650899683386245</v>
+      </c>
+      <c r="G29">
+        <v>0.009259641879940795</v>
+      </c>
+      <c r="H29">
+        <v>-0.09301654710457234</v>
+      </c>
+      <c r="I29">
+        <v>0.04404411932887747</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
       <c r="A30" s="1" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="B30">
-        <v>0.1337477827261113</v>
+        <v>-0.1274494378169794</v>
       </c>
       <c r="C30">
-        <v>-0.09042365969132324</v>
+        <v>-0.01445810761788932</v>
       </c>
       <c r="D30">
-        <v>0.09806865796236743</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
+        <v>-0.09235318691847899</v>
+      </c>
+      <c r="E30">
+        <v>0.05843201829149614</v>
+      </c>
+      <c r="F30">
+        <v>-0.03169441898934971</v>
+      </c>
+      <c r="G30">
+        <v>0.06046202015260078</v>
+      </c>
+      <c r="H30">
+        <v>0.04573937377009511</v>
+      </c>
+      <c r="I30">
+        <v>0.1829514692571761</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
       <c r="A31" s="1" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="B31">
-        <v>0.0477365234472148</v>
+        <v>-0.04758279399833662</v>
       </c>
       <c r="C31">
-        <v>-0.02801162427998276</v>
+        <v>-0.01628684286860111</v>
       </c>
       <c r="D31">
-        <v>0.0232489075677444</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
+        <v>-0.03678910664301907</v>
+      </c>
+      <c r="E31">
+        <v>0.01922195134095632</v>
+      </c>
+      <c r="F31">
+        <v>-0.01243759979999064</v>
+      </c>
+      <c r="G31">
+        <v>0.0008328396113249403</v>
+      </c>
+      <c r="H31">
+        <v>-0.06832623053443025</v>
+      </c>
+      <c r="I31">
+        <v>0.03370518398775616</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
       <c r="A32" s="1" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="B32">
-        <v>0.03391820482762019</v>
+        <v>-0.03956002878094794</v>
       </c>
       <c r="C32">
-        <v>-0.01582696256573325</v>
+        <v>0.008716306495536327</v>
       </c>
       <c r="D32">
-        <v>0.03020736240978395</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
+        <v>-0.01467475610483907</v>
+      </c>
+      <c r="E32">
+        <v>0.0425924899995635</v>
+      </c>
+      <c r="F32">
+        <v>0.01255052155881323</v>
+      </c>
+      <c r="G32">
+        <v>0.02958426077453051</v>
+      </c>
+      <c r="H32">
+        <v>0.01283138711286689</v>
+      </c>
+      <c r="I32">
+        <v>-0.01128667572490805</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
       <c r="A33" s="1" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="B33">
-        <v>0.08791326645380947</v>
+        <v>-0.09424427654229547</v>
       </c>
       <c r="C33">
-        <v>-0.04744853729302043</v>
+        <v>-0.0191031355236365</v>
       </c>
       <c r="D33">
-        <v>0.04891363419890172</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
+        <v>-0.05602626266655315</v>
+      </c>
+      <c r="E33">
+        <v>0.0145033054241291</v>
+      </c>
+      <c r="F33">
+        <v>-0.004836295687471921</v>
+      </c>
+      <c r="G33">
+        <v>0.008868375710071688</v>
+      </c>
+      <c r="H33">
+        <v>-0.06294685379893025</v>
+      </c>
+      <c r="I33">
+        <v>0.08046067657874936</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
       <c r="A34" s="1" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="B34">
-        <v>0.05749283988928965</v>
+        <v>-0.06663622343090896</v>
       </c>
       <c r="C34">
-        <v>-0.02795401724497258</v>
+        <v>-0.02217878896783439</v>
       </c>
       <c r="D34">
-        <v>0.0546982900247136</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
+        <v>-0.04515849734760884</v>
+      </c>
+      <c r="E34">
+        <v>0.01229100031238338</v>
+      </c>
+      <c r="F34">
+        <v>-0.02514617531616569</v>
+      </c>
+      <c r="G34">
+        <v>0.02767098822895901</v>
+      </c>
+      <c r="H34">
+        <v>-0.04928671307631648</v>
+      </c>
+      <c r="I34">
+        <v>0.06467159987105631</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
       <c r="A35" s="1" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="B35">
-        <v>0.03539128896734674</v>
+        <v>-0.03623481579263333</v>
       </c>
       <c r="C35">
-        <v>-0.01861235618881821</v>
+        <v>-0.005938062833113882</v>
       </c>
       <c r="D35">
-        <v>0.01928478509280029</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4">
+        <v>-0.02146391616734093</v>
+      </c>
+      <c r="E35">
+        <v>0.0178749744622361</v>
+      </c>
+      <c r="F35">
+        <v>0.01345474066270787</v>
+      </c>
+      <c r="G35">
+        <v>0.002440856504620351</v>
+      </c>
+      <c r="H35">
+        <v>-0.03339561457910261</v>
+      </c>
+      <c r="I35">
+        <v>0.04735423136229432</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
       <c r="A36" s="1" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="B36">
-        <v>0.02700938206702204</v>
+        <v>-0.02864221890323795</v>
       </c>
       <c r="C36">
-        <v>-0.02106229688123529</v>
+        <v>-0.003172194536415415</v>
       </c>
       <c r="D36">
-        <v>0.02038916290479644</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
+        <v>-0.02402811521914665</v>
+      </c>
+      <c r="E36">
+        <v>0.03195974617900089</v>
+      </c>
+      <c r="F36">
+        <v>-0.0323844272689781</v>
+      </c>
+      <c r="G36">
+        <v>0.01672062016084745</v>
+      </c>
+      <c r="H36">
+        <v>-0.04037884326176434</v>
+      </c>
+      <c r="I36">
+        <v>0.06510121505178568</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
       <c r="A37" s="1" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1209,66 +1764,141 @@
       <c r="D37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:4">
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+      <c r="I37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
       <c r="A38" s="1" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="B38">
-        <v>0.06083677363142505</v>
+        <v>-0.05307379453186908</v>
       </c>
       <c r="C38">
-        <v>-0.01757647959634208</v>
+        <v>-0.02042549872090437</v>
       </c>
       <c r="D38">
-        <v>0.00431888387476436</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
+        <v>-0.0193006803446477</v>
+      </c>
+      <c r="E38">
+        <v>0.05189459785035504</v>
+      </c>
+      <c r="F38">
+        <v>0.00330942151480139</v>
+      </c>
+      <c r="G38">
+        <v>-0.003404754443536505</v>
+      </c>
+      <c r="H38">
+        <v>-0.02404137173202579</v>
+      </c>
+      <c r="I38">
+        <v>0.03415330210841518</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9">
       <c r="A39" s="1" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="B39">
-        <v>0.0938030127765368</v>
+        <v>-0.1017815300927702</v>
       </c>
       <c r="C39">
-        <v>-0.06860891086727579</v>
+        <v>-0.006276769802566033</v>
       </c>
       <c r="D39">
-        <v>0.03982100706756843</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
+        <v>-0.07374603827082454</v>
+      </c>
+      <c r="E39">
+        <v>0.006488022219993647</v>
+      </c>
+      <c r="F39">
+        <v>-0.0162419171928915</v>
+      </c>
+      <c r="G39">
+        <v>0.04090525129051151</v>
+      </c>
+      <c r="H39">
+        <v>-0.01681214561819737</v>
+      </c>
+      <c r="I39">
+        <v>0.04828034732158838</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9">
       <c r="A40" s="1" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="B40">
-        <v>0.07540947705215859</v>
+        <v>-0.05566532204666746</v>
       </c>
       <c r="C40">
-        <v>-0.02785466212089582</v>
+        <v>-0.02760259344993606</v>
       </c>
       <c r="D40">
-        <v>0.01550935707204872</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
+        <v>-0.01930152295862517</v>
+      </c>
+      <c r="E40">
+        <v>0.03927978752250397</v>
+      </c>
+      <c r="F40">
+        <v>0.02460219243770178</v>
+      </c>
+      <c r="G40">
+        <v>0.0664502145011914</v>
+      </c>
+      <c r="H40">
+        <v>0.04786064389593024</v>
+      </c>
+      <c r="I40">
+        <v>0.2481389486895011</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9">
       <c r="A41" s="1" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="B41">
-        <v>0.0475976218384713</v>
+        <v>-0.04599166951313103</v>
       </c>
       <c r="C41">
-        <v>-0.01630151271950444</v>
+        <v>-0.02308224617286382</v>
       </c>
       <c r="D41">
-        <v>0.03213077462335043</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
+        <v>-0.02585986045743119</v>
+      </c>
+      <c r="E41">
+        <v>0.00269632504175798</v>
+      </c>
+      <c r="F41">
+        <v>0.01468024769835211</v>
+      </c>
+      <c r="G41">
+        <v>0.006162533062212218</v>
+      </c>
+      <c r="H41">
+        <v>-0.03328010030857846</v>
+      </c>
+      <c r="I41">
+        <v>0.02410060428464211</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9">
       <c r="A42" s="1" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1279,38 +1909,83 @@
       <c r="D42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:4">
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+      <c r="H42">
+        <v>0</v>
+      </c>
+      <c r="I42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9">
       <c r="A43" s="1" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="B43">
-        <v>0.05475602024562088</v>
+        <v>-0.05972947002692266</v>
       </c>
       <c r="C43">
-        <v>-0.03412237153028629</v>
+        <v>-0.008160289771517733</v>
       </c>
       <c r="D43">
-        <v>0.009745814191450444</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
+        <v>-0.03815421643909143</v>
+      </c>
+      <c r="E43">
+        <v>0.0181723897721204</v>
+      </c>
+      <c r="F43">
+        <v>-0.01579300446509424</v>
+      </c>
+      <c r="G43">
+        <v>-0.0128773576826915</v>
+      </c>
+      <c r="H43">
+        <v>-0.05719912172017041</v>
+      </c>
+      <c r="I43">
+        <v>0.004748380203312459</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9">
       <c r="A44" s="1" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="B44">
-        <v>0.09128162342002781</v>
+        <v>-0.091785019729085</v>
       </c>
       <c r="C44">
-        <v>-0.0339030752277933</v>
+        <v>-0.0282878764399914</v>
       </c>
       <c r="D44">
-        <v>0.05575050247333651</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
+        <v>-0.05007839352593456</v>
+      </c>
+      <c r="E44">
+        <v>0.06741439517225126</v>
+      </c>
+      <c r="F44">
+        <v>-0.09177534664732703</v>
+      </c>
+      <c r="G44">
+        <v>0.07726727262512564</v>
+      </c>
+      <c r="H44">
+        <v>-0.05567405152835713</v>
+      </c>
+      <c r="I44">
+        <v>0.1117566735177094</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9">
       <c r="A45" s="1" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1321,94 +1996,199 @@
       <c r="D45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:4">
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <v>0</v>
+      </c>
+      <c r="I45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9">
       <c r="A46" s="1" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="B46">
-        <v>0.02640792436819344</v>
+        <v>-0.03956204213874873</v>
       </c>
       <c r="C46">
-        <v>-0.01956812222511714</v>
+        <v>-0.01092604745879666</v>
       </c>
       <c r="D46">
-        <v>0.03132620775690014</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
+        <v>-0.03973616878892925</v>
+      </c>
+      <c r="E46">
+        <v>0.02839102177996971</v>
+      </c>
+      <c r="F46">
+        <v>-0.01974590343578729</v>
+      </c>
+      <c r="G46">
+        <v>-0.003479576708358443</v>
+      </c>
+      <c r="H46">
+        <v>-0.03644989292575188</v>
+      </c>
+      <c r="I46">
+        <v>0.02564486360588471</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9">
       <c r="A47" s="1" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="B47">
-        <v>0.03511226195034503</v>
+        <v>-0.04407199172639523</v>
       </c>
       <c r="C47">
-        <v>-0.02258503574957554</v>
+        <v>0.005289667394869346</v>
       </c>
       <c r="D47">
-        <v>-0.0002384467798742607</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
+        <v>-0.02141280222721891</v>
+      </c>
+      <c r="E47">
+        <v>0.04039059901654835</v>
+      </c>
+      <c r="F47">
+        <v>0.002137420719680177</v>
+      </c>
+      <c r="G47">
+        <v>-0.02694876281262805</v>
+      </c>
+      <c r="H47">
+        <v>-0.03122907347573453</v>
+      </c>
+      <c r="I47">
+        <v>0.05929893921433035</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9">
       <c r="A48" s="1" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="B48">
-        <v>0.03858615991920279</v>
+        <v>-0.04121625474326313</v>
       </c>
       <c r="C48">
-        <v>-0.03200271161098821</v>
+        <v>0.001170989344113586</v>
       </c>
       <c r="D48">
-        <v>0.03218846964530859</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
+        <v>-0.02907407446680006</v>
+      </c>
+      <c r="E48">
+        <v>0.03867379336279059</v>
+      </c>
+      <c r="F48">
+        <v>-0.01300653669829013</v>
+      </c>
+      <c r="G48">
+        <v>0.02302058439047619</v>
+      </c>
+      <c r="H48">
+        <v>-0.0153778873086512</v>
+      </c>
+      <c r="I48">
+        <v>0.04792776240368088</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9">
       <c r="A49" s="1" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="B49">
-        <v>0.1648629499929016</v>
+        <v>-0.1999818290376711</v>
       </c>
       <c r="C49">
-        <v>-0.04565860276757579</v>
+        <v>0.00409238421989425</v>
       </c>
       <c r="D49">
-        <v>0.01220890850899963</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4">
+        <v>-0.03991259147560858</v>
+      </c>
+      <c r="E49">
+        <v>-0.1803558343216104</v>
+      </c>
+      <c r="F49">
+        <v>-0.006146008880722015</v>
+      </c>
+      <c r="G49">
+        <v>-0.1593755229700308</v>
+      </c>
+      <c r="H49">
+        <v>0.2282426168758671</v>
+      </c>
+      <c r="I49">
+        <v>-0.04981573184370913</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9">
       <c r="A50" s="1" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="B50">
-        <v>0.04620921126397712</v>
+        <v>-0.04957526235486436</v>
       </c>
       <c r="C50">
-        <v>-0.03827050328838089</v>
+        <v>-0.00811881915391814</v>
       </c>
       <c r="D50">
-        <v>0.03434023534910245</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
+        <v>-0.04558940024933231</v>
+      </c>
+      <c r="E50">
+        <v>0.02417149866536855</v>
+      </c>
+      <c r="F50">
+        <v>-0.006309795725194704</v>
+      </c>
+      <c r="G50">
+        <v>0.01025011174177222</v>
+      </c>
+      <c r="H50">
+        <v>-0.06831403716176285</v>
+      </c>
+      <c r="I50">
+        <v>0.02276058782809302</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9">
       <c r="A51" s="1" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="B51">
-        <v>0.02413085497476068</v>
+        <v>-0.03399290478775056</v>
       </c>
       <c r="C51">
-        <v>-0.005847226498431498</v>
+        <v>0.0052274715213747</v>
       </c>
       <c r="D51">
-        <v>-0.003617609530701393</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4">
+        <v>0.0002104261865194957</v>
+      </c>
+      <c r="E51">
+        <v>0.004009549110709657</v>
+      </c>
+      <c r="F51">
+        <v>-0.01498386103483477</v>
+      </c>
+      <c r="G51">
+        <v>-0.02170519088666117</v>
+      </c>
+      <c r="H51">
+        <v>0.02246474542747827</v>
+      </c>
+      <c r="I51">
+        <v>-0.01434723433078872</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9">
       <c r="A52" s="1" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1419,66 +2199,141 @@
       <c r="D52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:4">
+      <c r="E52">
+        <v>0</v>
+      </c>
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+      <c r="H52">
+        <v>0</v>
+      </c>
+      <c r="I52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9">
       <c r="A53" s="1" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="B53">
-        <v>0.1530813757894302</v>
+        <v>-0.1593432465089867</v>
       </c>
       <c r="C53">
-        <v>-0.0845641906061488</v>
+        <v>0.02460075059569778</v>
       </c>
       <c r="D53">
-        <v>-0.0135620917891678</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
+        <v>-0.05205946592391047</v>
+      </c>
+      <c r="E53">
+        <v>-0.03229622036403563</v>
+      </c>
+      <c r="F53">
+        <v>0.004578480467075912</v>
+      </c>
+      <c r="G53">
+        <v>-0.00333673572468797</v>
+      </c>
+      <c r="H53">
+        <v>-0.1987096142366383</v>
+      </c>
+      <c r="I53">
+        <v>-0.1124366092392011</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9">
       <c r="A54" s="1" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="B54">
-        <v>0.05763989354986114</v>
+        <v>-0.06054696960697214</v>
       </c>
       <c r="C54">
-        <v>-0.03069434978395847</v>
+        <v>0.007546395373043448</v>
       </c>
       <c r="D54">
-        <v>0.02270086494658243</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
+        <v>-0.02426410581818959</v>
+      </c>
+      <c r="E54">
+        <v>0.05611791863374595</v>
+      </c>
+      <c r="F54">
+        <v>-0.02782536556928899</v>
+      </c>
+      <c r="G54">
+        <v>0.06017737962706969</v>
+      </c>
+      <c r="H54">
+        <v>-0.04274722272741557</v>
+      </c>
+      <c r="I54">
+        <v>0.1039295792967652</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9">
       <c r="A55" s="1" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="B55">
-        <v>0.0973755846330292</v>
+        <v>-0.1000311191790903</v>
       </c>
       <c r="C55">
-        <v>-0.05485233847718309</v>
+        <v>0.003419683991807472</v>
       </c>
       <c r="D55">
-        <v>0.01135291367557708</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
+        <v>-0.04364608879030161</v>
+      </c>
+      <c r="E55">
+        <v>-0.00706091088391826</v>
+      </c>
+      <c r="F55">
+        <v>-0.01739051807959493</v>
+      </c>
+      <c r="G55">
+        <v>0.01932794355622888</v>
+      </c>
+      <c r="H55">
+        <v>-0.1590436520255845</v>
+      </c>
+      <c r="I55">
+        <v>-0.0322109463525667</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9">
       <c r="A56" s="1" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="B56">
-        <v>0.142674200636839</v>
+        <v>-0.1506802889452409</v>
       </c>
       <c r="C56">
-        <v>-0.09366424013601039</v>
+        <v>0.0134803530209919</v>
       </c>
       <c r="D56">
-        <v>-0.004371916289537628</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
+        <v>-0.07249624272340818</v>
+      </c>
+      <c r="E56">
+        <v>-0.02007202539051987</v>
+      </c>
+      <c r="F56">
+        <v>-0.01111919253911377</v>
+      </c>
+      <c r="G56">
+        <v>0.01002842304281011</v>
+      </c>
+      <c r="H56">
+        <v>-0.1969560130399612</v>
+      </c>
+      <c r="I56">
+        <v>-0.1324149375342295</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9">
       <c r="A57" s="1" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1489,542 +2344,1127 @@
       <c r="D57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:4">
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+      <c r="G57">
+        <v>0</v>
+      </c>
+      <c r="H57">
+        <v>0</v>
+      </c>
+      <c r="I57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9">
       <c r="A58" s="1" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="B58">
-        <v>0.1155426691723907</v>
+        <v>-0.08919215133382664</v>
       </c>
       <c r="C58">
-        <v>0.02429824058625301</v>
+        <v>-0.06919965569526224</v>
       </c>
       <c r="D58">
-        <v>0.06833554884985134</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
+        <v>0.02016220147081633</v>
+      </c>
+      <c r="E58">
+        <v>0.1055785558972907</v>
+      </c>
+      <c r="F58">
+        <v>-0.04308583858860351</v>
+      </c>
+      <c r="G58">
+        <v>-0.05948453598472127</v>
+      </c>
+      <c r="H58">
+        <v>0.1429863220716589</v>
+      </c>
+      <c r="I58">
+        <v>0.610311492507653</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9">
       <c r="A59" s="1" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="B59">
-        <v>0.1266828096023552</v>
+        <v>-0.151567904646594</v>
       </c>
       <c r="C59">
-        <v>-0.06673738317321996</v>
+        <v>0.3104664131400364</v>
       </c>
       <c r="D59">
-        <v>-0.4260000259903501</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
+        <v>0.1947338172755591</v>
+      </c>
+      <c r="E59">
+        <v>0.02455723899431703</v>
+      </c>
+      <c r="F59">
+        <v>-0.01366769757802414</v>
+      </c>
+      <c r="G59">
+        <v>0.008822587357368428</v>
+      </c>
+      <c r="H59">
+        <v>-0.02187016490198898</v>
+      </c>
+      <c r="I59">
+        <v>-0.0428879053843664</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9">
       <c r="A60" s="1" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="B60">
-        <v>0.209513170541196</v>
+        <v>-0.2395866864509015</v>
       </c>
       <c r="C60">
-        <v>-0.09176329366498777</v>
+        <v>0.01636480839184641</v>
       </c>
       <c r="D60">
-        <v>-0.004236373538527968</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
+        <v>-0.06812050971926172</v>
+      </c>
+      <c r="E60">
+        <v>-0.1303487012161291</v>
+      </c>
+      <c r="F60">
+        <v>-0.03948306352675281</v>
+      </c>
+      <c r="G60">
+        <v>-0.03613537228681089</v>
+      </c>
+      <c r="H60">
+        <v>0.1539191611797645</v>
+      </c>
+      <c r="I60">
+        <v>-0.1227312226757758</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9">
       <c r="A61" s="1" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="B61">
-        <v>0.07554755406956305</v>
+        <v>-0.08316138023582199</v>
       </c>
       <c r="C61">
-        <v>-0.05071133360157151</v>
+        <v>-0.006218612040270663</v>
       </c>
       <c r="D61">
-        <v>0.02941890633278684</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
+        <v>-0.05579428420173075</v>
+      </c>
+      <c r="E61">
+        <v>0.007333475789590385</v>
+      </c>
+      <c r="F61">
+        <v>-0.02039398330316643</v>
+      </c>
+      <c r="G61">
+        <v>0.03694437601224873</v>
+      </c>
+      <c r="H61">
+        <v>-0.07062366107146625</v>
+      </c>
+      <c r="I61">
+        <v>0.02967911650946759</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9">
       <c r="A62" s="1" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="B62">
-        <v>0.1321113839714647</v>
+        <v>-0.139613491529316</v>
       </c>
       <c r="C62">
-        <v>-0.06287383816513416</v>
+        <v>-0.006372277240763145</v>
       </c>
       <c r="D62">
-        <v>-0.0007629479956484972</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4">
+        <v>-0.05340685917360779</v>
+      </c>
+      <c r="E62">
+        <v>-0.03932207644705651</v>
+      </c>
+      <c r="F62">
+        <v>0.03148436376877642</v>
+      </c>
+      <c r="G62">
+        <v>0.04207477738665204</v>
+      </c>
+      <c r="H62">
+        <v>-0.1818420347532466</v>
+      </c>
+      <c r="I62">
+        <v>-0.139073744166492</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9">
       <c r="A63" s="1" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="B63">
-        <v>0.05172762105355092</v>
+        <v>-0.04965233888333218</v>
       </c>
       <c r="C63">
-        <v>-0.02887170846546007</v>
+        <v>-0.004237275269537393</v>
       </c>
       <c r="D63">
-        <v>0.02814895370613744</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
+        <v>-0.02886969580853399</v>
+      </c>
+      <c r="E63">
+        <v>0.03405910806363103</v>
+      </c>
+      <c r="F63">
+        <v>-0.004077866253603482</v>
+      </c>
+      <c r="G63">
+        <v>0.04306136167643805</v>
+      </c>
+      <c r="H63">
+        <v>-0.03182838841836756</v>
+      </c>
+      <c r="I63">
+        <v>0.01890401157976331</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9">
       <c r="A64" s="1" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="B64">
-        <v>0.1057983068485759</v>
+        <v>-0.1107279879881459</v>
       </c>
       <c r="C64">
-        <v>-0.04232406127056432</v>
+        <v>-0.0005322993311440564</v>
       </c>
       <c r="D64">
-        <v>0.01686639689863584</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
+        <v>-0.03647032034972648</v>
+      </c>
+      <c r="E64">
+        <v>0.03138653873567866</v>
+      </c>
+      <c r="F64">
+        <v>-0.04759534000190484</v>
+      </c>
+      <c r="G64">
+        <v>0.05299918112767701</v>
+      </c>
+      <c r="H64">
+        <v>-0.01220832391162831</v>
+      </c>
+      <c r="I64">
+        <v>0.02639201215728353</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9">
       <c r="A65" s="1" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="B65">
-        <v>0.1233498202815251</v>
+        <v>-0.1316098217786384</v>
       </c>
       <c r="C65">
-        <v>-0.06233455569951841</v>
+        <v>0.02483571947084491</v>
       </c>
       <c r="D65">
-        <v>0.01857972080859304</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
+        <v>-0.04221453147609733</v>
+      </c>
+      <c r="E65">
+        <v>-0.005904041437185109</v>
+      </c>
+      <c r="F65">
+        <v>-0.03346607582578277</v>
+      </c>
+      <c r="G65">
+        <v>0.0786006625171406</v>
+      </c>
+      <c r="H65">
+        <v>0.1941242336260867</v>
+      </c>
+      <c r="I65">
+        <v>0.06487079967460552</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9">
       <c r="A66" s="1" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="B66">
-        <v>0.1484195984718887</v>
+        <v>-0.1477022429789491</v>
       </c>
       <c r="C66">
-        <v>-0.09356759446363772</v>
+        <v>-0.0342366825986424</v>
       </c>
       <c r="D66">
-        <v>0.07635096503931295</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
+        <v>-0.1104539380837494</v>
+      </c>
+      <c r="E66">
+        <v>-0.02800022419593452</v>
+      </c>
+      <c r="F66">
+        <v>-0.002158118942917177</v>
+      </c>
+      <c r="G66">
+        <v>0.08083722682644329</v>
+      </c>
+      <c r="H66">
+        <v>-0.0788053455674962</v>
+      </c>
+      <c r="I66">
+        <v>0.07386794535729402</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9">
       <c r="A67" s="1" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="B67">
-        <v>0.0880566881376002</v>
+        <v>-0.09118591757567203</v>
       </c>
       <c r="C67">
-        <v>-0.02387882774582141</v>
+        <v>-0.02331623392856809</v>
       </c>
       <c r="D67">
-        <v>0.01228827186271643</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
+        <v>-0.03155783185995197</v>
+      </c>
+      <c r="E67">
+        <v>0.02140074274914377</v>
+      </c>
+      <c r="F67">
+        <v>-0.007794070851654893</v>
+      </c>
+      <c r="G67">
+        <v>-0.02186644942287343</v>
+      </c>
+      <c r="H67">
+        <v>-0.01427871433929176</v>
+      </c>
+      <c r="I67">
+        <v>0.000672013578016629</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9">
       <c r="A68" s="1" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="B68">
-        <v>0.04866122193353363</v>
+        <v>-0.06583475717993388</v>
       </c>
       <c r="C68">
-        <v>-0.03516359252608355</v>
+        <v>0.2380874915798514</v>
       </c>
       <c r="D68">
-        <v>-0.2547031606677205</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4">
+        <v>0.1478263566414197</v>
+      </c>
+      <c r="E68">
+        <v>0.04250642863448705</v>
+      </c>
+      <c r="F68">
+        <v>-0.0185163739097184</v>
+      </c>
+      <c r="G68">
+        <v>0.003879940279993243</v>
+      </c>
+      <c r="H68">
+        <v>-0.02238926129757707</v>
+      </c>
+      <c r="I68">
+        <v>0.01711945453544192</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9">
       <c r="A69" s="1" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="B69">
-        <v>0.05972199646126444</v>
+        <v>-0.05447690081945968</v>
       </c>
       <c r="C69">
-        <v>-0.02680047052290353</v>
+        <v>-0.01107997981238589</v>
       </c>
       <c r="D69">
-        <v>0.01934913980570111</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4">
+        <v>-0.02224377999618957</v>
+      </c>
+      <c r="E69">
+        <v>0.02289472609212122</v>
+      </c>
+      <c r="F69">
+        <v>0.01438376441001875</v>
+      </c>
+      <c r="G69">
+        <v>0.003331255524281222</v>
+      </c>
+      <c r="H69">
+        <v>-0.04236367235459026</v>
+      </c>
+      <c r="I69">
+        <v>0.01635074981871202</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9">
       <c r="A70" s="1" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="B70">
-        <v>0.01263083728139706</v>
+        <v>-0.03274821166838431</v>
       </c>
       <c r="C70">
-        <v>0.002801874255058762</v>
+        <v>0.0004440504187567167</v>
       </c>
       <c r="D70">
-        <v>-0.01416492998832946</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4">
+        <v>0.00368158411186965</v>
+      </c>
+      <c r="E70">
+        <v>-0.02345903316339441</v>
+      </c>
+      <c r="F70">
+        <v>0.009189711318605801</v>
+      </c>
+      <c r="G70">
+        <v>-0.02242783553008965</v>
+      </c>
+      <c r="H70">
+        <v>0.02536946013089941</v>
+      </c>
+      <c r="I70">
+        <v>-0.001251634398007058</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9">
       <c r="A71" s="1" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="B71">
-        <v>0.04752013115714792</v>
+        <v>-0.07197153352548466</v>
       </c>
       <c r="C71">
-        <v>-0.03369089852809554</v>
+        <v>0.2578941488965588</v>
       </c>
       <c r="D71">
-        <v>-0.286198090820718</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4">
+        <v>0.1588559244050321</v>
+      </c>
+      <c r="E71">
+        <v>0.03558002280532419</v>
+      </c>
+      <c r="F71">
+        <v>-0.04573808661738993</v>
+      </c>
+      <c r="G71">
+        <v>0.003637190612206609</v>
+      </c>
+      <c r="H71">
+        <v>-0.02175441099413088</v>
+      </c>
+      <c r="I71">
+        <v>0.0204554183180816</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9">
       <c r="A72" s="1" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="B72">
-        <v>0.13986802424773</v>
+        <v>-0.1392504931238253</v>
       </c>
       <c r="C72">
-        <v>-0.05458871282721768</v>
+        <v>0.01968152509253778</v>
       </c>
       <c r="D72">
-        <v>-0.02987299140302361</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4">
+        <v>-0.01195542957424408</v>
+      </c>
+      <c r="E72">
+        <v>-0.03089033072846773</v>
+      </c>
+      <c r="F72">
+        <v>0.1590485230448955</v>
+      </c>
+      <c r="G72">
+        <v>0.1128094494846036</v>
+      </c>
+      <c r="H72">
+        <v>-0.00572307477984471</v>
+      </c>
+      <c r="I72">
+        <v>-0.03036687644613023</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9">
       <c r="A73" s="1" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="B73">
-        <v>0.269952619221132</v>
+        <v>-0.2738343049607083</v>
       </c>
       <c r="C73">
-        <v>-0.06698920056912243</v>
+        <v>-0.06128019897975966</v>
       </c>
       <c r="D73">
-        <v>0.04532075459685905</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4">
+        <v>-0.06043448964804082</v>
+      </c>
+      <c r="E73">
+        <v>-0.285205897572073</v>
+      </c>
+      <c r="F73">
+        <v>-0.0387126994152903</v>
+      </c>
+      <c r="G73">
+        <v>-0.2714376311386302</v>
+      </c>
+      <c r="H73">
+        <v>0.3263581642462462</v>
+      </c>
+      <c r="I73">
+        <v>-0.03088045871627609</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9">
       <c r="A74" s="1" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="B74">
-        <v>0.0783179075883693</v>
+        <v>-0.08975593447125874</v>
       </c>
       <c r="C74">
-        <v>-0.07754223207349474</v>
+        <v>0.01306301625817727</v>
       </c>
       <c r="D74">
-        <v>0.003963885499003207</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4">
+        <v>-0.06938944757360661</v>
+      </c>
+      <c r="E74">
+        <v>-0.01175498866393235</v>
+      </c>
+      <c r="F74">
+        <v>0.001743028872153944</v>
+      </c>
+      <c r="G74">
+        <v>-0.02887759798492102</v>
+      </c>
+      <c r="H74">
+        <v>-0.1325740048003846</v>
+      </c>
+      <c r="I74">
+        <v>-0.01727757577756079</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9">
       <c r="A75" s="1" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="B75">
-        <v>0.1079713924027368</v>
+        <v>-0.1046948261282081</v>
       </c>
       <c r="C75">
-        <v>-0.05542263317279248</v>
+        <v>-0.006481959210158964</v>
       </c>
       <c r="D75">
-        <v>0.008175289508956891</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4">
+        <v>-0.03631099259738876</v>
+      </c>
+      <c r="E75">
+        <v>0.0001774967333642803</v>
+      </c>
+      <c r="F75">
+        <v>0.003162742756223349</v>
+      </c>
+      <c r="G75">
+        <v>-0.001801666683691409</v>
+      </c>
+      <c r="H75">
+        <v>-0.1093596880919225</v>
+      </c>
+      <c r="I75">
+        <v>-0.05360327796612387</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9">
       <c r="A76" s="1" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="B76">
-        <v>0.1259094948294071</v>
+        <v>-0.1350372599838751</v>
       </c>
       <c r="C76">
-        <v>-0.07902406724552763</v>
+        <v>-0.002641280099764517</v>
       </c>
       <c r="D76">
-        <v>0.02705012152398304</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4">
+        <v>-0.07860461480213025</v>
+      </c>
+      <c r="E76">
+        <v>-0.001708364025821579</v>
+      </c>
+      <c r="F76">
+        <v>-0.03443981834249374</v>
+      </c>
+      <c r="G76">
+        <v>0.02134621498998317</v>
+      </c>
+      <c r="H76">
+        <v>-0.2490948943589721</v>
+      </c>
+      <c r="I76">
+        <v>-0.1084589661664919</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9">
       <c r="A77" s="1" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="B77">
-        <v>0.1227791025121694</v>
+        <v>-0.09835632394806623</v>
       </c>
       <c r="C77">
-        <v>-0.0213561617759691</v>
+        <v>-0.04701783357255649</v>
       </c>
       <c r="D77">
-        <v>0.07135624208102861</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4">
+        <v>-0.01636149575722627</v>
+      </c>
+      <c r="E77">
+        <v>0.05518579536203846</v>
+      </c>
+      <c r="F77">
+        <v>-0.08804413913266541</v>
+      </c>
+      <c r="G77">
+        <v>0.7818454549399435</v>
+      </c>
+      <c r="H77">
+        <v>0.3272000630309781</v>
+      </c>
+      <c r="I77">
+        <v>-0.2720971160376764</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9">
       <c r="A78" s="1" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="B78">
-        <v>0.1046221271231183</v>
+        <v>-0.1483586235286299</v>
       </c>
       <c r="C78">
-        <v>-0.04107522820794385</v>
+        <v>-0.02271215236392716</v>
       </c>
       <c r="D78">
-        <v>0.07667923598379106</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4">
+        <v>-0.0846381046045788</v>
+      </c>
+      <c r="E78">
+        <v>0.04954777067355048</v>
+      </c>
+      <c r="F78">
+        <v>-0.05999029718668913</v>
+      </c>
+      <c r="G78">
+        <v>0.02647421810086848</v>
+      </c>
+      <c r="H78">
+        <v>0.1006470272495757</v>
+      </c>
+      <c r="I78">
+        <v>0.09004978539712075</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9">
       <c r="A79" s="1" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="B79">
-        <v>0.1355348456521454</v>
+        <v>-0.1413108381786364</v>
       </c>
       <c r="C79">
-        <v>-0.06344135215133839</v>
+        <v>-0.01110934902981549</v>
       </c>
       <c r="D79">
-        <v>0.03368884508390108</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4">
+        <v>-0.05727573589228498</v>
+      </c>
+      <c r="E79">
+        <v>-0.01348619424248589</v>
+      </c>
+      <c r="F79">
+        <v>-0.01952581534546824</v>
+      </c>
+      <c r="G79">
+        <v>0.02265418010095856</v>
+      </c>
+      <c r="H79">
+        <v>-0.1743184231254938</v>
+      </c>
+      <c r="I79">
+        <v>-0.08083580213600133</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9">
       <c r="A80" s="1" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="B80">
-        <v>0.03207665434130945</v>
+        <v>-0.03759600581617745</v>
       </c>
       <c r="C80">
-        <v>-0.01969008677192542</v>
+        <v>0.002475737541116562</v>
       </c>
       <c r="D80">
-        <v>0.02462233523447473</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4">
+        <v>-0.01892910443569854</v>
+      </c>
+      <c r="E80">
+        <v>-0.04586378960474337</v>
+      </c>
+      <c r="F80">
+        <v>0.0005591262620757084</v>
+      </c>
+      <c r="G80">
+        <v>-0.01698205232286205</v>
+      </c>
+      <c r="H80">
+        <v>-0.02737893159341745</v>
+      </c>
+      <c r="I80">
+        <v>0.110215132522553</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9">
       <c r="A81" s="1" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="B81">
-        <v>0.1269130686707737</v>
+        <v>-0.1285534210180426</v>
       </c>
       <c r="C81">
-        <v>-0.07818432983685869</v>
+        <v>0.007753512072154134</v>
       </c>
       <c r="D81">
-        <v>0.01715719960451773</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4">
+        <v>-0.05575861175289946</v>
+      </c>
+      <c r="E81">
+        <v>-0.0103669423752372</v>
+      </c>
+      <c r="F81">
+        <v>-0.02060970008500667</v>
+      </c>
+      <c r="G81">
+        <v>0.004684333899516844</v>
+      </c>
+      <c r="H81">
+        <v>-0.1624886783947807</v>
+      </c>
+      <c r="I81">
+        <v>-0.02171042439208152</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9">
       <c r="A82" s="1" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="B82">
-        <v>0.1276250382379112</v>
+        <v>-0.1290781414907813</v>
       </c>
       <c r="C82">
-        <v>-0.07062177634024761</v>
+        <v>0.008394707250640105</v>
       </c>
       <c r="D82">
-        <v>0.005110053219834178</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4">
+        <v>-0.05239042832460581</v>
+      </c>
+      <c r="E82">
+        <v>-0.0223566144354739</v>
+      </c>
+      <c r="F82">
+        <v>-0.0325556873775319</v>
+      </c>
+      <c r="G82">
+        <v>-0.004069752966509974</v>
+      </c>
+      <c r="H82">
+        <v>-0.2332876672310783</v>
+      </c>
+      <c r="I82">
+        <v>-0.1129501009017569</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9">
       <c r="A83" s="1" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="B83">
-        <v>0.06364009116981574</v>
+        <v>-0.07860044849895297</v>
       </c>
       <c r="C83">
-        <v>0.03513355425032825</v>
+        <v>-0.04412773849219356</v>
       </c>
       <c r="D83">
-        <v>0.0166488177581119</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4">
+        <v>0.01590831689583638</v>
+      </c>
+      <c r="E83">
+        <v>0.02082701537375933</v>
+      </c>
+      <c r="F83">
+        <v>-0.04237000153639114</v>
+      </c>
+      <c r="G83">
+        <v>-0.05488645471997319</v>
+      </c>
+      <c r="H83">
+        <v>0.01061879827533602</v>
+      </c>
+      <c r="I83">
+        <v>0.12663322775445</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9">
       <c r="A84" s="1" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="B84">
-        <v>0.02898411192293728</v>
+        <v>-0.0317756660921529</v>
       </c>
       <c r="C84">
-        <v>-0.04159435617100079</v>
+        <v>-0.009824480779496469</v>
       </c>
       <c r="D84">
-        <v>0.03079948452441736</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4">
+        <v>-0.04923440372978084</v>
+      </c>
+      <c r="E84">
+        <v>0.0219990694904341</v>
+      </c>
+      <c r="F84">
+        <v>0.04094815184219148</v>
+      </c>
+      <c r="G84">
+        <v>-0.01877517452239197</v>
+      </c>
+      <c r="H84">
+        <v>-0.03480782587931633</v>
+      </c>
+      <c r="I84">
+        <v>0.1038334717848401</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9">
       <c r="A85" s="1" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="B85">
-        <v>0.1131322696999444</v>
+        <v>-0.1191199481397632</v>
       </c>
       <c r="C85">
-        <v>-0.0410477259691533</v>
+        <v>-0.01672946360303249</v>
       </c>
       <c r="D85">
-        <v>0.04308473000230491</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4">
+        <v>-0.04292035380750948</v>
+      </c>
+      <c r="E85">
+        <v>0.003992944235201316</v>
+      </c>
+      <c r="F85">
+        <v>-0.04585451864201637</v>
+      </c>
+      <c r="G85">
+        <v>0.001363362989611416</v>
+      </c>
+      <c r="H85">
+        <v>-0.1562529985912546</v>
+      </c>
+      <c r="I85">
+        <v>-0.07408009762521746</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9">
       <c r="A86" s="1" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="B86">
-        <v>0.04997057702674552</v>
+        <v>-0.0498131170839279</v>
       </c>
       <c r="C86">
-        <v>-0.0382096049719503</v>
+        <v>-0.01728028240289387</v>
       </c>
       <c r="D86">
-        <v>0.06749737075202028</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4">
+        <v>-0.04567873139119481</v>
+      </c>
+      <c r="E86">
+        <v>0.02968964110922327</v>
+      </c>
+      <c r="F86">
+        <v>-0.02113026660541931</v>
+      </c>
+      <c r="G86">
+        <v>-0.01034821745114469</v>
+      </c>
+      <c r="H86">
+        <v>0.05301411222521942</v>
+      </c>
+      <c r="I86">
+        <v>-0.002449764426389931</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9">
       <c r="A87" s="1" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="B87">
-        <v>0.1186778407592466</v>
+        <v>-0.1245048199797756</v>
       </c>
       <c r="C87">
-        <v>-0.07612457126936471</v>
+        <v>-0.02586193958945539</v>
       </c>
       <c r="D87">
-        <v>0.07505308553580782</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4">
+        <v>-0.08171292277550139</v>
+      </c>
+      <c r="E87">
+        <v>0.02775779656844423</v>
+      </c>
+      <c r="F87">
+        <v>-0.02502785341945523</v>
+      </c>
+      <c r="G87">
+        <v>0.1536260580081426</v>
+      </c>
+      <c r="H87">
+        <v>0.08188379546619257</v>
+      </c>
+      <c r="I87">
+        <v>0.01242988059995567</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9">
       <c r="A88" s="1" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="B88">
-        <v>0.05622594295724068</v>
+        <v>-0.06387713499416922</v>
       </c>
       <c r="C88">
-        <v>-0.03622576391525789</v>
+        <v>-0.012767884528558</v>
       </c>
       <c r="D88">
-        <v>0.02688960986513281</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4">
+        <v>-0.04737024770506186</v>
+      </c>
+      <c r="E88">
+        <v>-0.0001197916836978302</v>
+      </c>
+      <c r="F88">
+        <v>-0.02192908247419658</v>
+      </c>
+      <c r="G88">
+        <v>0.005541187461579757</v>
+      </c>
+      <c r="H88">
+        <v>-0.03877421163513869</v>
+      </c>
+      <c r="I88">
+        <v>0.02643824864555232</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9">
       <c r="A89" s="1" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="B89">
-        <v>0.07719234197110186</v>
+        <v>-0.1137099433883503</v>
       </c>
       <c r="C89">
-        <v>-0.0581655336541679</v>
+        <v>0.3216548660583688</v>
       </c>
       <c r="D89">
-        <v>-0.3171013680317233</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4">
+        <v>0.1804999810001095</v>
+      </c>
+      <c r="E89">
+        <v>0.04530970240182802</v>
+      </c>
+      <c r="F89">
+        <v>-0.08100280681631823</v>
+      </c>
+      <c r="G89">
+        <v>-0.02800953307540417</v>
+      </c>
+      <c r="H89">
+        <v>-0.02964728208966068</v>
+      </c>
+      <c r="I89">
+        <v>0.0766404633998705</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9">
       <c r="A90" s="1" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="B90">
-        <v>0.06559258646761193</v>
+        <v>-0.08779846141837547</v>
       </c>
       <c r="C90">
-        <v>-0.03809407358980608</v>
+        <v>0.2502175641652728</v>
       </c>
       <c r="D90">
-        <v>-0.2788317959967623</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4">
+        <v>0.1567680578149579</v>
+      </c>
+      <c r="E90">
+        <v>0.04526767812275383</v>
+      </c>
+      <c r="F90">
+        <v>-0.03616462833311617</v>
+      </c>
+      <c r="G90">
+        <v>0.0273414321611509</v>
+      </c>
+      <c r="H90">
+        <v>0.01567276642870363</v>
+      </c>
+      <c r="I90">
+        <v>0.07291420199578923</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9">
       <c r="A91" s="1" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="B91">
-        <v>0.09266428964455446</v>
+        <v>-0.0915977503007338</v>
       </c>
       <c r="C91">
-        <v>-0.05896905453690274</v>
+        <v>-0.002577714480713017</v>
       </c>
       <c r="D91">
-        <v>0.01224515933092282</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4">
+        <v>-0.04485347027335625</v>
+      </c>
+      <c r="E91">
+        <v>0.0002299793699462753</v>
+      </c>
+      <c r="F91">
+        <v>-0.001359955738661343</v>
+      </c>
+      <c r="G91">
+        <v>-0.01287624165079368</v>
+      </c>
+      <c r="H91">
+        <v>-0.08133136952987939</v>
+      </c>
+      <c r="I91">
+        <v>-0.04238067514524324</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9">
       <c r="A92" s="1" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="B92">
-        <v>0.06301642752131069</v>
+        <v>-0.08634587138519523</v>
       </c>
       <c r="C92">
-        <v>-0.04878955222945923</v>
+        <v>0.2882384953544334</v>
       </c>
       <c r="D92">
-        <v>-0.3244851147946337</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4">
+        <v>0.1736612415350457</v>
+      </c>
+      <c r="E92">
+        <v>0.04865615590980858</v>
+      </c>
+      <c r="F92">
+        <v>-0.04615623794146487</v>
+      </c>
+      <c r="G92">
+        <v>0.002780641213612967</v>
+      </c>
+      <c r="H92">
+        <v>-0.03307892391694112</v>
+      </c>
+      <c r="I92">
+        <v>0.03040383371432514</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9">
       <c r="A93" s="1" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="B93">
-        <v>0.05480111974812525</v>
+        <v>-0.08237194018449261</v>
       </c>
       <c r="C93">
-        <v>-0.0539224901183978</v>
+        <v>0.2791191883429479</v>
       </c>
       <c r="D93">
-        <v>-0.3085305214115188</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4">
+        <v>0.1534813533236877</v>
+      </c>
+      <c r="E93">
+        <v>0.009500653097246244</v>
+      </c>
+      <c r="F93">
+        <v>-0.03224669716352067</v>
+      </c>
+      <c r="G93">
+        <v>0.02029276227164373</v>
+      </c>
+      <c r="H93">
+        <v>0.0007023238962142564</v>
+      </c>
+      <c r="I93">
+        <v>0.0122366748456601</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9">
       <c r="A94" s="1" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="B94">
-        <v>0.1302196956176397</v>
+        <v>-0.1265119222724164</v>
       </c>
       <c r="C94">
-        <v>-0.03320867697584846</v>
+        <v>-0.03180830444565133</v>
       </c>
       <c r="D94">
-        <v>0.0459793735800707</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4">
+        <v>-0.03259073900767794</v>
+      </c>
+      <c r="E94">
+        <v>-0.02344831965386672</v>
+      </c>
+      <c r="F94">
+        <v>-0.01549398919195745</v>
+      </c>
+      <c r="G94">
+        <v>-0.0409462004716766</v>
+      </c>
+      <c r="H94">
+        <v>-0.1103910852101312</v>
+      </c>
+      <c r="I94">
+        <v>-0.03619046786830966</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9">
       <c r="A95" s="1" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="B95">
-        <v>0.1184947703030051</v>
+        <v>-0.1314417685703265</v>
       </c>
       <c r="C95">
-        <v>-0.03122915445664277</v>
+        <v>-0.04379190256004234</v>
       </c>
       <c r="D95">
-        <v>0.07673200929138044</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4">
+        <v>-0.05511595625219914</v>
+      </c>
+      <c r="E95">
+        <v>0.004107257459309672</v>
+      </c>
+      <c r="F95">
+        <v>-0.04717740666681784</v>
+      </c>
+      <c r="G95">
+        <v>0.04352306535993355</v>
+      </c>
+      <c r="H95">
+        <v>0.1096264077685419</v>
+      </c>
+      <c r="I95">
+        <v>0.07277108685535813</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9">
       <c r="A96" s="1" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2035,52 +3475,112 @@
       <c r="D96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:4">
+      <c r="E96">
+        <v>0</v>
+      </c>
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+      <c r="H96">
+        <v>0</v>
+      </c>
+      <c r="I96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9">
       <c r="A97" s="1" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="B97">
-        <v>0.2327521098724199</v>
+        <v>-0.1936408042001504</v>
       </c>
       <c r="C97">
-        <v>-0.05280625401340232</v>
+        <v>0.0259808494359309</v>
       </c>
       <c r="D97">
-        <v>-0.1168681770791468</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4">
+        <v>0.06524774679104491</v>
+      </c>
+      <c r="E97">
+        <v>0.04500047083888375</v>
+      </c>
+      <c r="F97">
+        <v>0.9334997864429727</v>
+      </c>
+      <c r="G97">
+        <v>0.08314421682795266</v>
+      </c>
+      <c r="H97">
+        <v>0.01660188892562004</v>
+      </c>
+      <c r="I97">
+        <v>0.07698411334432502</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9">
       <c r="A98" s="1" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="B98">
-        <v>0.2519323333990635</v>
+        <v>-0.2837663635450087</v>
       </c>
       <c r="C98">
-        <v>-0.09323705367162188</v>
+        <v>-0.006144083119571287</v>
       </c>
       <c r="D98">
-        <v>0.02505893810347671</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4">
+        <v>-0.07195969476404757</v>
+      </c>
+      <c r="E98">
+        <v>-0.2037180232714993</v>
+      </c>
+      <c r="F98">
+        <v>0.008845542148717111</v>
+      </c>
+      <c r="G98">
+        <v>-0.2916898601708776</v>
+      </c>
+      <c r="H98">
+        <v>0.2324468506390206</v>
+      </c>
+      <c r="I98">
+        <v>-0.226767231617512</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9">
       <c r="A99" s="1" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="B99">
-        <v>0.425082317505621</v>
+        <v>-0.2708540297709822</v>
       </c>
       <c r="C99">
-        <v>0.8850472183677394</v>
+        <v>-0.5579385293061532</v>
       </c>
       <c r="D99">
-        <v>-0.02498591134181643</v>
-      </c>
-    </row>
-    <row r="100" spans="1:4">
+        <v>0.7544732589417374</v>
+      </c>
+      <c r="E99">
+        <v>0.08054982401223099</v>
+      </c>
+      <c r="F99">
+        <v>-0.09271001637816828</v>
+      </c>
+      <c r="G99">
+        <v>-0.009103523645479769</v>
+      </c>
+      <c r="H99">
+        <v>-0.08036825132068487</v>
+      </c>
+      <c r="I99">
+        <v>-0.03686575112583892</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9">
       <c r="A100" s="1" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2091,24 +3591,54 @@
       <c r="D100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:4">
+      <c r="E100">
+        <v>0</v>
+      </c>
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+      <c r="H100">
+        <v>0</v>
+      </c>
+      <c r="I100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9">
       <c r="A101" s="1" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="B101">
-        <v>0.04543024565578962</v>
+        <v>-0.05113226292945237</v>
       </c>
       <c r="C101">
-        <v>-0.04401648802631682</v>
+        <v>0.01395066561576724</v>
       </c>
       <c r="D101">
-        <v>0.004261604503137143</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4">
+        <v>-0.03648088199486623</v>
+      </c>
+      <c r="E101">
+        <v>0.04425411844377804</v>
+      </c>
+      <c r="F101">
+        <v>-0.0265114160556315</v>
+      </c>
+      <c r="G101">
+        <v>0.008027043512817902</v>
+      </c>
+      <c r="H101">
+        <v>-0.09172692992481496</v>
+      </c>
+      <c r="I101">
+        <v>0.04460284518807568</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9">
       <c r="A102" s="1" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="B102">
         <v>0</v>
@@ -2119,10 +3649,25 @@
       <c r="D102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:4">
+      <c r="E102">
+        <v>0</v>
+      </c>
+      <c r="F102">
+        <v>0</v>
+      </c>
+      <c r="G102">
+        <v>0</v>
+      </c>
+      <c r="H102">
+        <v>0</v>
+      </c>
+      <c r="I102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9">
       <c r="A103" s="1" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2133,10 +3678,25 @@
       <c r="D103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:4">
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+      <c r="G103">
+        <v>0</v>
+      </c>
+      <c r="H103">
+        <v>0</v>
+      </c>
+      <c r="I103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9">
       <c r="A104" s="1" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -2145,6 +3705,21 @@
         <v>0</v>
       </c>
       <c r="D104">
+        <v>0</v>
+      </c>
+      <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
+        <v>0</v>
+      </c>
+      <c r="G104">
+        <v>0</v>
+      </c>
+      <c r="H104">
+        <v>0</v>
+      </c>
+      <c r="I104">
         <v>0</v>
       </c>
     </row>
